--- a/backend/src/uploads/customer-data1 - Kopya.xlsx
+++ b/backend/src/uploads/customer-data1 - Kopya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57481742-2963-4558-9A58-4787FAB6D21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CEE59F-6773-443C-A15D-5ED84474B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>AB Rh-</t>
-  </si>
-  <si>
     <t>A Rh+</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>yas</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,30 +506,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3700</v>
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>23</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>7300</v>
@@ -552,15 +552,15 @@
         <v>49</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>3100</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -587,42 +587,42 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>3700</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2">
         <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>6400</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>4000</v>
@@ -646,17 +646,15 @@
         <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6900</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="2">
         <v>45</v>
       </c>

--- a/backend/src/uploads/customer-data1 - Kopya.xlsx
+++ b/backend/src/uploads/customer-data1 - Kopya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CEE59F-6773-443C-A15D-5ED84474B5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B428A29-1451-44FA-8516-5EBD13BD7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31575" yWindow="4395" windowWidth="17220" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -490,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,8 +662,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M20" s="4"/>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/src/uploads/customer-data1 - Kopya.xlsx
+++ b/backend/src/uploads/customer-data1 - Kopya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B428A29-1451-44FA-8516-5EBD13BD7183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8625589F-0980-4B1A-BA7B-43A17445E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31575" yWindow="4395" windowWidth="17220" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/backend/src/uploads/customer-data1 - Kopya.xlsx
+++ b/backend/src/uploads/customer-data1 - Kopya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8625589F-0980-4B1A-BA7B-43A17445E226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA78581-6F35-41E5-B0BB-F32710B7B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>B</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>fsa</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -156,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,11 +216,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -209,6 +253,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,7 +549,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +560,7 @@
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,8 +576,14 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -537,8 +599,14 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -554,8 +622,14 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -571,8 +645,14 @@
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -584,8 +664,14 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -601,8 +687,14 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -616,8 +708,14 @@
       <c r="E7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -631,8 +729,14 @@
         <v>38</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="6">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,8 +752,14 @@
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -660,6 +770,12 @@
       </c>
       <c r="E10" s="2">
         <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="12:12" x14ac:dyDescent="0.3">

--- a/backend/src/uploads/customer-data1 - Kopya.xlsx
+++ b/backend/src/uploads/customer-data1 - Kopya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mooxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA78581-6F35-41E5-B0BB-F32710B7B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3770FE-2C92-48E8-831A-235590CC7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>B</t>
   </si>
@@ -112,30 +112,6 @@
   </si>
   <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>Boy</t>
-  </si>
-  <si>
-    <t>fsa</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>jk</t>
   </si>
 </sst>
 </file>
@@ -180,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,20 +203,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,12 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +521,7 @@
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,13 +538,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,11 +560,8 @@
       <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -625,11 +580,8 @@
       <c r="F3" s="6">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -648,11 +600,8 @@
       <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -667,11 +616,8 @@
       <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -690,11 +636,8 @@
       <c r="F6" s="6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -711,11 +654,8 @@
       <c r="F7" s="6">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -732,11 +672,8 @@
       <c r="F8" s="6">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -755,11 +692,8 @@
       <c r="F9" s="6">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>26</v>
@@ -774,12 +708,9 @@
       <c r="F10" s="6">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L20" s="4"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
